--- a/database/_legacy-data/cards.xlsx
+++ b/database/_legacy-data/cards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="21285" windowHeight="13455" xr2:uid="{37BFACED-0025-4226-B73C-3E1EC388680B}"/>
+    <workbookView xWindow="3420" yWindow="0" windowWidth="21285" windowHeight="13455" xr2:uid="{37BFACED-0025-4226-B73C-3E1EC388680B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>yellow-red</t>
   </si>
   <si>
-    <t>TÃ¤tlichkeit</t>
-  </si>
-  <si>
     <t>Schiedsrichterbeleidigung</t>
   </si>
   <si>
@@ -86,16 +83,67 @@
     <t>Spielerbeleidigung</t>
   </si>
   <si>
-    <t>Versuchte TÃ¤tlichkeit</t>
-  </si>
-  <si>
-    <t>Beleidigung und anschlieÃŸende TÃ¤tlichkeit</t>
-  </si>
-  <si>
     <t>Beleidigung eines Gegenspielers</t>
   </si>
   <si>
     <t>Nachtreten</t>
+  </si>
+  <si>
+    <t>Beleidigung</t>
+  </si>
+  <si>
+    <t>Foulspiel</t>
+  </si>
+  <si>
+    <t>Handspiel / Tor verhindert</t>
+  </si>
+  <si>
+    <t>Grobes Foulspiel</t>
+  </si>
+  <si>
+    <t>Absichtl. Handspiel im Strafraum</t>
+  </si>
+  <si>
+    <t>Zustimmung zum Einsatz eines nicht spielberechtigten Spielers</t>
+  </si>
+  <si>
+    <t>Mitspielerbeleidigung</t>
+  </si>
+  <si>
+    <t>Foul</t>
+  </si>
+  <si>
+    <t>Grobes Faulspiel</t>
+  </si>
+  <si>
+    <t>Unsportlichkeit</t>
+  </si>
+  <si>
+    <t>Foulspiel / Tätlichkeit</t>
+  </si>
+  <si>
+    <t>Tätlichkeit</t>
+  </si>
+  <si>
+    <t>Tätlichkeit(en)</t>
+  </si>
+  <si>
+    <t>Tätlichkeiten gegen Schiedsrichter</t>
+  </si>
+  <si>
+    <t>Tätlichkeit gegen Schiedsrichter</t>
+  </si>
+  <si>
+    <t>Versuchte Tätlichkeit</t>
+  </si>
+  <si>
+    <t>Beleidigung und anschlieÃŸende Tätlichkeit</t>
+  </si>
+  <si>
+    <t>Einschüchterungsversuch Schiedsrichter</t>
+  </si>
+  <si>
+    <t>Unsportliches Verhalten ggü Schiedsrichter</t>
   </si>
 </sst>
 </file>
@@ -454,10 +502,10 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L108" sqref="L108"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,8 +565,8 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -527,18 +575,18 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -554,8 +602,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -564,18 +612,18 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:L34" ca="1" si="0">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -591,8 +639,8 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -601,18 +649,18 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -628,8 +676,8 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -638,18 +686,18 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -665,8 +713,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -675,18 +723,18 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -702,8 +750,8 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -712,18 +760,18 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -739,8 +787,8 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -756,11 +804,11 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -776,8 +824,8 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -793,11 +841,11 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -813,8 +861,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,11 +878,11 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -850,8 +898,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -867,11 +915,11 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -887,8 +935,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -904,11 +952,11 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,8 +972,8 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -934,18 +982,18 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -961,8 +1009,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -978,11 +1026,11 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -998,8 +1046,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1015,11 +1063,11 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1035,8 +1083,8 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1045,18 +1093,18 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1072,8 +1120,8 @@
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1089,11 +1137,11 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1109,8 +1157,8 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1119,18 +1167,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -1146,8 +1194,8 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1156,18 +1204,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1183,8 +1231,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1200,11 +1248,11 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -1220,8 +1268,8 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1237,11 +1285,11 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1257,8 +1305,8 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1274,11 +1322,11 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1294,8 +1342,8 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1304,18 +1352,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1331,8 +1379,8 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1348,11 +1396,11 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -1368,8 +1416,8 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1378,18 +1426,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -1405,8 +1453,8 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1415,18 +1463,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -1442,8 +1490,8 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1452,18 +1500,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -1479,8 +1527,8 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1496,11 +1544,11 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -1516,8 +1564,8 @@
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1526,18 +1574,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -1553,8 +1601,8 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1563,18 +1611,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -1590,8 +1638,8 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1607,11 +1655,11 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -1627,8 +1675,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1637,18 +1685,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1664,8 +1712,8 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1674,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1701,8 +1749,8 @@
       <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1711,18 +1759,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1738,8 +1786,8 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1748,18 +1796,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" ref="K35:L66" ca="1" si="1">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1775,8 +1823,8 @@
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1785,18 +1833,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -1812,8 +1860,8 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1822,18 +1870,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1849,8 +1897,8 @@
       <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1859,18 +1907,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1886,8 +1934,8 @@
       <c r="E39">
         <v>5</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1896,18 +1944,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1923,8 +1971,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1940,11 +1988,11 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1960,8 +2008,8 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1970,18 +2018,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1997,8 +2045,8 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2007,18 +2055,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -2034,8 +2082,8 @@
       <c r="E43">
         <v>5</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2044,18 +2092,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -2071,8 +2119,8 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2081,18 +2129,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2108,8 +2156,8 @@
       <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2118,18 +2166,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2145,8 +2193,8 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2155,18 +2203,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -2182,8 +2230,8 @@
       <c r="E47">
         <v>5</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2192,18 +2240,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -2219,8 +2267,8 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2229,18 +2277,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2256,8 +2304,8 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
+      <c r="F49">
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2266,18 +2314,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -2293,8 +2341,8 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
-        <v>12</v>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2303,18 +2351,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -2330,8 +2378,8 @@
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2340,18 +2388,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2367,8 +2415,8 @@
       <c r="E52">
         <v>3</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2377,18 +2425,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2404,8 +2452,8 @@
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2414,18 +2462,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2441,8 +2489,8 @@
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54" t="s">
-        <v>12</v>
+      <c r="F54">
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2451,18 +2499,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -2478,8 +2526,8 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2488,18 +2536,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2515,8 +2563,8 @@
       <c r="E56">
         <v>6</v>
       </c>
-      <c r="F56" t="s">
-        <v>12</v>
+      <c r="F56">
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2525,18 +2573,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2552,8 +2600,8 @@
       <c r="E57">
         <v>4</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2562,18 +2610,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2589,8 +2637,8 @@
       <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58" t="s">
-        <v>12</v>
+      <c r="F58">
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2599,18 +2647,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2626,25 +2674,28 @@
       <c r="E59">
         <v>2</v>
       </c>
-      <c r="F59" t="s">
-        <v>12</v>
+      <c r="F59">
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
       </c>
       <c r="J59" t="s">
         <v>12</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -2660,25 +2711,28 @@
       <c r="E60">
         <v>3</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>31</v>
       </c>
       <c r="J60" t="s">
         <v>12</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -2694,25 +2748,28 @@
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
       </c>
       <c r="J61" t="s">
         <v>12</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -2728,25 +2785,28 @@
       <c r="E62">
         <v>5</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
       </c>
       <c r="J62" t="s">
         <v>12</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -2762,25 +2822,28 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
       </c>
       <c r="J63" t="s">
         <v>12</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -2796,25 +2859,28 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>12</v>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
       </c>
       <c r="J64" t="s">
         <v>12</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -2830,25 +2896,28 @@
       <c r="E65">
         <v>3</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
       </c>
       <c r="J65" t="s">
         <v>12</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -2864,25 +2933,28 @@
       <c r="E66">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
-        <v>12</v>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
       </c>
       <c r="J66" t="s">
         <v>12</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -2898,25 +2970,28 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
       </c>
       <c r="J67" t="s">
         <v>12</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:L98" ca="1" si="2">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -2932,25 +3007,28 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
-        <v>12</v>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
       </c>
       <c r="J68" t="s">
         <v>12</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -2966,25 +3044,28 @@
       <c r="E69">
         <v>3</v>
       </c>
-      <c r="F69" t="s">
-        <v>12</v>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
       </c>
       <c r="J69" t="s">
         <v>12</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -3000,25 +3081,28 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
-        <v>12</v>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -3034,25 +3118,28 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="s">
-        <v>12</v>
+      <c r="F71">
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -3068,25 +3155,28 @@
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
+      <c r="F72">
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -3102,25 +3192,28 @@
       <c r="E73">
         <v>6</v>
       </c>
-      <c r="F73" t="s">
-        <v>12</v>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
       </c>
       <c r="J73" t="s">
         <v>12</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -3136,25 +3229,28 @@
       <c r="E74">
         <v>4</v>
       </c>
-      <c r="F74" t="s">
-        <v>12</v>
+      <c r="F74">
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
       </c>
       <c r="J74" t="s">
         <v>12</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -3170,25 +3266,28 @@
       <c r="E75">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
-        <v>12</v>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>34</v>
       </c>
       <c r="J75" t="s">
         <v>12</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -3204,25 +3303,28 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" t="s">
-        <v>12</v>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -3238,25 +3340,28 @@
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
       </c>
       <c r="J77" t="s">
         <v>12</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -3272,25 +3377,28 @@
       <c r="E78">
         <v>3</v>
       </c>
-      <c r="F78" t="s">
-        <v>12</v>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
       </c>
       <c r="J78" t="s">
         <v>12</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -3306,25 +3414,28 @@
       <c r="E79">
         <v>2</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
       </c>
       <c r="J79" t="s">
         <v>12</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -3340,25 +3451,28 @@
       <c r="E80">
         <v>5</v>
       </c>
-      <c r="F80" t="s">
-        <v>12</v>
+      <c r="F80">
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
       </c>
       <c r="J80" t="s">
         <v>12</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -3374,25 +3488,28 @@
       <c r="E81">
         <v>3</v>
       </c>
-      <c r="F81" t="s">
-        <v>12</v>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
       </c>
       <c r="J81" t="s">
         <v>12</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -3408,25 +3525,28 @@
       <c r="E82">
         <v>5</v>
       </c>
-      <c r="F82" t="s">
-        <v>12</v>
+      <c r="F82">
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
       </c>
       <c r="J82" t="s">
         <v>12</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -3442,25 +3562,28 @@
       <c r="E83">
         <v>2</v>
       </c>
-      <c r="F83" t="s">
-        <v>12</v>
+      <c r="F83">
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
       </c>
       <c r="J83" t="s">
         <v>12</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -3476,25 +3599,28 @@
       <c r="E84">
         <v>5</v>
       </c>
-      <c r="F84" t="s">
-        <v>12</v>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
       </c>
       <c r="J84" t="s">
         <v>12</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -3510,25 +3636,28 @@
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85" t="s">
-        <v>12</v>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
       </c>
       <c r="J85" t="s">
         <v>12</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
@@ -3544,25 +3673,28 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
-        <v>12</v>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
       </c>
       <c r="J86" t="s">
         <v>12</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
@@ -3578,25 +3710,28 @@
       <c r="E87">
         <v>3</v>
       </c>
-      <c r="F87" t="s">
-        <v>12</v>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
       </c>
       <c r="J87" t="s">
         <v>12</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -3612,25 +3747,28 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" t="s">
-        <v>12</v>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
       </c>
       <c r="J88" t="s">
         <v>12</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -3646,25 +3784,28 @@
       <c r="E89">
         <v>5</v>
       </c>
-      <c r="F89" t="s">
-        <v>12</v>
+      <c r="F89">
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
       </c>
       <c r="J89" t="s">
         <v>12</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -3680,25 +3821,28 @@
       <c r="E90">
         <v>3</v>
       </c>
-      <c r="F90" t="s">
-        <v>12</v>
+      <c r="F90">
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
       </c>
       <c r="J90" t="s">
         <v>12</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -3714,25 +3858,28 @@
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="F91" t="s">
-        <v>12</v>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
       </c>
       <c r="J91" t="s">
         <v>12</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -3748,25 +3895,28 @@
       <c r="E92">
         <v>7</v>
       </c>
-      <c r="F92" t="s">
-        <v>12</v>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>37</v>
       </c>
       <c r="J92" t="s">
         <v>12</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -3782,25 +3932,28 @@
       <c r="E93">
         <v>1</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>38</v>
       </c>
       <c r="J93" t="s">
         <v>12</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -3816,25 +3969,28 @@
       <c r="E94">
         <v>3</v>
       </c>
-      <c r="F94" t="s">
-        <v>12</v>
+      <c r="F94">
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
       </c>
       <c r="J94" t="s">
         <v>12</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -3850,8 +4006,8 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="s">
-        <v>12</v>
+      <c r="F95">
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3859,16 +4015,19 @@
       <c r="H95">
         <v>1</v>
       </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
       <c r="J95" t="s">
         <v>12</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -3884,25 +4043,28 @@
       <c r="E96">
         <v>3</v>
       </c>
-      <c r="F96" t="s">
-        <v>12</v>
+      <c r="F96">
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>28</v>
       </c>
       <c r="J96" t="s">
         <v>12</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -3918,25 +4080,28 @@
       <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97" t="s">
-        <v>12</v>
+      <c r="F97">
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
       </c>
       <c r="J97" t="s">
         <v>12</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
@@ -3952,25 +4117,28 @@
       <c r="E98">
         <v>3</v>
       </c>
-      <c r="F98" t="s">
-        <v>12</v>
+      <c r="F98">
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
       </c>
       <c r="J98" t="s">
         <v>12</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
@@ -3986,25 +4154,28 @@
       <c r="E99">
         <v>2</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
+      <c r="F99">
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
       </c>
       <c r="J99" t="s">
         <v>12</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" ref="K99:L130" ca="1" si="3">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L99" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
@@ -4020,25 +4191,28 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
-        <v>12</v>
+      <c r="F100">
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>29</v>
       </c>
       <c r="J100" t="s">
         <v>12</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L100" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -4054,25 +4228,28 @@
       <c r="E101">
         <v>4</v>
       </c>
-      <c r="F101" t="s">
-        <v>12</v>
+      <c r="F101">
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
       </c>
       <c r="J101" t="s">
         <v>12</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L101" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
@@ -4088,25 +4265,28 @@
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102" t="s">
-        <v>12</v>
+      <c r="F102">
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>29</v>
       </c>
       <c r="J102" t="s">
         <v>12</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L102" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
@@ -4122,25 +4302,28 @@
       <c r="E103">
         <v>3</v>
       </c>
-      <c r="F103" t="s">
-        <v>12</v>
+      <c r="F103">
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
       </c>
       <c r="J103" t="s">
         <v>12</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L103" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
@@ -4156,25 +4339,28 @@
       <c r="E104">
         <v>5</v>
       </c>
-      <c r="F104" t="s">
-        <v>12</v>
+      <c r="F104">
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
       </c>
       <c r="J104" t="s">
         <v>12</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
@@ -4190,25 +4376,28 @@
       <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105" t="s">
-        <v>12</v>
+      <c r="F105">
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
       </c>
       <c r="J105" t="s">
         <v>12</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L105" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
@@ -4224,25 +4413,28 @@
       <c r="E106">
         <v>3</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
       </c>
       <c r="J106" t="s">
         <v>12</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L106" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
@@ -4258,25 +4450,28 @@
       <c r="E107">
         <v>3</v>
       </c>
-      <c r="F107" t="s">
-        <v>12</v>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
       </c>
       <c r="J107" t="s">
         <v>12</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L107" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -4292,25 +4487,28 @@
       <c r="E108">
         <v>1</v>
       </c>
-      <c r="F108" t="s">
-        <v>12</v>
+      <c r="F108">
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
       </c>
       <c r="J108" t="s">
         <v>12</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L108" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
@@ -4326,25 +4524,28 @@
       <c r="E109">
         <v>3</v>
       </c>
-      <c r="F109" t="s">
-        <v>12</v>
+      <c r="F109">
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
       </c>
       <c r="J109" t="s">
         <v>12</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L109" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
@@ -4360,25 +4561,28 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110" t="s">
-        <v>12</v>
+      <c r="F110">
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
       </c>
       <c r="J110" t="s">
         <v>12</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L110" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
@@ -4394,25 +4598,28 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
+      <c r="F111">
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
       </c>
       <c r="J111" t="s">
         <v>12</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L111" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
@@ -4428,25 +4635,28 @@
       <c r="E112">
         <v>3</v>
       </c>
-      <c r="F112" t="s">
-        <v>12</v>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
       </c>
       <c r="J112" t="s">
         <v>12</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L112" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
@@ -4462,25 +4672,28 @@
       <c r="E113">
         <v>3</v>
       </c>
-      <c r="F113" t="s">
-        <v>12</v>
+      <c r="F113">
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
       </c>
       <c r="J113" t="s">
         <v>12</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L113" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
@@ -4496,25 +4709,28 @@
       <c r="E114">
         <v>3</v>
       </c>
-      <c r="F114" t="s">
-        <v>12</v>
+      <c r="F114">
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
       </c>
       <c r="J114" t="s">
         <v>12</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L114" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
@@ -4530,25 +4746,28 @@
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115" t="s">
-        <v>12</v>
+      <c r="F115">
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
       </c>
       <c r="J115" t="s">
         <v>12</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L115" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
@@ -4564,25 +4783,28 @@
       <c r="E116">
         <v>2</v>
       </c>
-      <c r="F116" t="s">
-        <v>12</v>
+      <c r="F116">
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
       </c>
       <c r="J116" t="s">
         <v>12</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L116" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
@@ -4598,25 +4820,28 @@
       <c r="E117">
         <v>1</v>
       </c>
-      <c r="F117" t="s">
-        <v>12</v>
+      <c r="F117">
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
       </c>
       <c r="J117" t="s">
         <v>12</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L117" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
@@ -4632,25 +4857,28 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
-        <v>12</v>
+      <c r="F118">
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
       </c>
       <c r="J118" t="s">
         <v>12</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L118" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
@@ -4666,25 +4894,28 @@
       <c r="E119">
         <v>2</v>
       </c>
-      <c r="F119" t="s">
-        <v>12</v>
+      <c r="F119">
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>21</v>
       </c>
       <c r="J119" t="s">
         <v>12</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L119" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
@@ -4700,25 +4931,28 @@
       <c r="E120">
         <v>1</v>
       </c>
-      <c r="F120" t="s">
-        <v>12</v>
+      <c r="F120">
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
       </c>
       <c r="J120" t="s">
         <v>12</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L120" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
@@ -4734,25 +4968,28 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121" t="s">
-        <v>12</v>
+      <c r="F121">
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
       </c>
       <c r="J121" t="s">
         <v>12</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L121" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
@@ -4768,25 +5005,28 @@
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122" t="s">
-        <v>12</v>
+      <c r="F122">
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
       </c>
       <c r="J122" t="s">
         <v>12</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L122" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
@@ -4802,25 +5042,28 @@
       <c r="E123">
         <v>2</v>
       </c>
-      <c r="F123" t="s">
-        <v>12</v>
+      <c r="F123">
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
       </c>
       <c r="J123" t="s">
         <v>12</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L123" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
@@ -4836,25 +5079,28 @@
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124" t="s">
-        <v>12</v>
+      <c r="F124">
+        <v>0</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
         <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
       </c>
       <c r="J124" t="s">
         <v>12</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L124" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
@@ -4870,25 +5116,28 @@
       <c r="E125">
         <v>5</v>
       </c>
-      <c r="F125" t="s">
-        <v>12</v>
+      <c r="F125">
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
         <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
       </c>
       <c r="J125" t="s">
         <v>12</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L125" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
@@ -4904,25 +5153,28 @@
       <c r="E126">
         <v>5</v>
       </c>
-      <c r="F126" t="s">
-        <v>12</v>
+      <c r="F126">
+        <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
       </c>
       <c r="J126" t="s">
         <v>12</v>
       </c>
       <c r="K126" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L126" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
@@ -4938,25 +5190,28 @@
       <c r="E127">
         <v>3</v>
       </c>
-      <c r="F127" t="s">
-        <v>12</v>
+      <c r="F127">
+        <v>0</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
       </c>
       <c r="J127" t="s">
         <v>12</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L127" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
@@ -4972,25 +5227,28 @@
       <c r="E128">
         <v>2</v>
       </c>
-      <c r="F128" t="s">
-        <v>12</v>
+      <c r="F128">
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
       </c>
       <c r="J128" t="s">
         <v>12</v>
       </c>
       <c r="K128" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L128" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
@@ -5006,25 +5264,28 @@
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="F129" t="s">
-        <v>12</v>
+      <c r="F129">
+        <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
       </c>
       <c r="J129" t="s">
         <v>12</v>
       </c>
       <c r="K129" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L129" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
@@ -5040,25 +5301,28 @@
       <c r="E130">
         <v>3</v>
       </c>
-      <c r="F130" t="s">
-        <v>12</v>
+      <c r="F130">
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>31</v>
       </c>
       <c r="J130" t="s">
         <v>12</v>
       </c>
       <c r="K130" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L130" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
@@ -5074,25 +5338,28 @@
       <c r="E131">
         <v>5</v>
       </c>
-      <c r="F131" t="s">
-        <v>12</v>
+      <c r="F131">
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
       </c>
       <c r="J131" t="s">
         <v>12</v>
       </c>
       <c r="K131" s="1">
         <f t="shared" ref="K131:L162" ca="1" si="4">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L131" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
@@ -5108,25 +5375,28 @@
       <c r="E132">
         <v>5</v>
       </c>
-      <c r="F132" t="s">
-        <v>12</v>
+      <c r="F132">
+        <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
         <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
       </c>
       <c r="J132" t="s">
         <v>12</v>
       </c>
       <c r="K132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
@@ -5142,25 +5412,28 @@
       <c r="E133">
         <v>2</v>
       </c>
-      <c r="F133" t="s">
-        <v>12</v>
+      <c r="F133">
+        <v>0</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
       </c>
       <c r="J133" t="s">
         <v>12</v>
       </c>
       <c r="K133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
@@ -5176,25 +5449,28 @@
       <c r="E134">
         <v>1</v>
       </c>
-      <c r="F134" t="s">
-        <v>12</v>
+      <c r="F134">
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
       </c>
       <c r="J134" t="s">
         <v>12</v>
       </c>
       <c r="K134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
@@ -5210,25 +5486,28 @@
       <c r="E135">
         <v>2</v>
       </c>
-      <c r="F135" t="s">
-        <v>12</v>
+      <c r="F135">
+        <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
       </c>
       <c r="J135" t="s">
         <v>12</v>
       </c>
       <c r="K135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
@@ -5244,25 +5523,28 @@
       <c r="E136">
         <v>3</v>
       </c>
-      <c r="F136" t="s">
-        <v>12</v>
+      <c r="F136">
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
       </c>
       <c r="J136" t="s">
         <v>12</v>
       </c>
       <c r="K136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
@@ -5278,25 +5560,28 @@
       <c r="E137">
         <v>3</v>
       </c>
-      <c r="F137" t="s">
-        <v>12</v>
+      <c r="F137">
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
         <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>12</v>
       </c>
       <c r="J137" t="s">
         <v>12</v>
       </c>
       <c r="K137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
@@ -5312,25 +5597,28 @@
       <c r="E138">
         <v>2</v>
       </c>
-      <c r="F138" t="s">
-        <v>12</v>
+      <c r="F138">
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
         <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>12</v>
       </c>
       <c r="J138" t="s">
         <v>12</v>
       </c>
       <c r="K138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
@@ -5346,25 +5634,28 @@
       <c r="E139">
         <v>3</v>
       </c>
-      <c r="F139" t="s">
-        <v>12</v>
+      <c r="F139">
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>12</v>
       </c>
       <c r="J139" t="s">
         <v>12</v>
       </c>
       <c r="K139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
@@ -5380,25 +5671,28 @@
       <c r="E140">
         <v>3</v>
       </c>
-      <c r="F140" t="s">
-        <v>12</v>
+      <c r="F140">
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
         <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
       </c>
       <c r="J140" t="s">
         <v>12</v>
       </c>
       <c r="K140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
@@ -5414,25 +5708,28 @@
       <c r="E141">
         <v>1</v>
       </c>
-      <c r="F141" t="s">
-        <v>12</v>
+      <c r="F141">
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
       </c>
       <c r="J141" t="s">
         <v>12</v>
       </c>
       <c r="K141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
@@ -5448,25 +5745,28 @@
       <c r="E142">
         <v>5</v>
       </c>
-      <c r="F142" t="s">
-        <v>12</v>
+      <c r="F142">
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
       </c>
       <c r="J142" t="s">
         <v>12</v>
       </c>
       <c r="K142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
@@ -5482,25 +5782,28 @@
       <c r="E143">
         <v>1</v>
       </c>
-      <c r="F143" t="s">
-        <v>12</v>
+      <c r="F143">
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
       </c>
       <c r="J143" t="s">
         <v>12</v>
       </c>
       <c r="K143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
@@ -5516,25 +5819,28 @@
       <c r="E144">
         <v>2</v>
       </c>
-      <c r="F144" t="s">
-        <v>12</v>
+      <c r="F144">
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
       </c>
       <c r="J144" t="s">
         <v>12</v>
       </c>
       <c r="K144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
@@ -5550,25 +5856,28 @@
       <c r="E145">
         <v>2</v>
       </c>
-      <c r="F145" t="s">
-        <v>12</v>
+      <c r="F145">
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
         <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
       </c>
       <c r="J145" t="s">
         <v>12</v>
       </c>
       <c r="K145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
@@ -5584,25 +5893,28 @@
       <c r="E146">
         <v>2</v>
       </c>
-      <c r="F146" t="s">
-        <v>12</v>
+      <c r="F146">
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
       </c>
       <c r="J146" t="s">
         <v>12</v>
       </c>
       <c r="K146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
@@ -5618,25 +5930,28 @@
       <c r="E147">
         <v>5</v>
       </c>
-      <c r="F147" t="s">
-        <v>12</v>
+      <c r="F147">
+        <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
       </c>
       <c r="J147" t="s">
         <v>12</v>
       </c>
       <c r="K147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
@@ -5652,25 +5967,28 @@
       <c r="E148">
         <v>5</v>
       </c>
-      <c r="F148" t="s">
-        <v>12</v>
+      <c r="F148">
+        <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
       </c>
       <c r="J148" t="s">
         <v>12</v>
       </c>
       <c r="K148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
@@ -5686,25 +6004,28 @@
       <c r="E149">
         <v>5</v>
       </c>
-      <c r="F149" t="s">
-        <v>12</v>
+      <c r="F149">
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
         <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>12</v>
       </c>
       <c r="J149" t="s">
         <v>12</v>
       </c>
       <c r="K149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
@@ -5720,25 +6041,28 @@
       <c r="E150">
         <v>1</v>
       </c>
-      <c r="F150" t="s">
-        <v>12</v>
+      <c r="F150">
+        <v>0</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
         <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>12</v>
       </c>
       <c r="J150" t="s">
         <v>12</v>
       </c>
       <c r="K150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
@@ -5754,25 +6078,28 @@
       <c r="E151">
         <v>1</v>
       </c>
-      <c r="F151" t="s">
-        <v>12</v>
+      <c r="F151">
+        <v>0</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
       </c>
       <c r="J151" t="s">
         <v>12</v>
       </c>
       <c r="K151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
@@ -5788,25 +6115,28 @@
       <c r="E152">
         <v>1</v>
       </c>
-      <c r="F152" t="s">
-        <v>12</v>
+      <c r="F152">
+        <v>0</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
         <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>12</v>
       </c>
       <c r="J152" t="s">
         <v>12</v>
       </c>
       <c r="K152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
@@ -5822,25 +6152,28 @@
       <c r="E153">
         <v>2</v>
       </c>
-      <c r="F153" t="s">
-        <v>12</v>
+      <c r="F153">
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
         <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>12</v>
       </c>
       <c r="J153" t="s">
         <v>12</v>
       </c>
       <c r="K153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
@@ -5856,25 +6189,28 @@
       <c r="E154">
         <v>2</v>
       </c>
-      <c r="F154" t="s">
-        <v>12</v>
+      <c r="F154">
+        <v>0</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
         <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>12</v>
       </c>
       <c r="J154" t="s">
         <v>12</v>
       </c>
       <c r="K154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
@@ -5890,25 +6226,28 @@
       <c r="E155">
         <v>2</v>
       </c>
-      <c r="F155" t="s">
-        <v>12</v>
+      <c r="F155">
+        <v>0</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
         <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
       </c>
       <c r="J155" t="s">
         <v>12</v>
       </c>
       <c r="K155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
@@ -5924,25 +6263,28 @@
       <c r="E156">
         <v>2</v>
       </c>
-      <c r="F156" t="s">
-        <v>12</v>
+      <c r="F156">
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>12</v>
       </c>
       <c r="J156" t="s">
         <v>12</v>
       </c>
       <c r="K156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
@@ -5958,25 +6300,28 @@
       <c r="E157">
         <v>2</v>
       </c>
-      <c r="F157" t="s">
-        <v>12</v>
+      <c r="F157">
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
         <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
       </c>
       <c r="J157" t="s">
         <v>12</v>
       </c>
       <c r="K157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
@@ -5992,25 +6337,28 @@
       <c r="E158">
         <v>3</v>
       </c>
-      <c r="F158" t="s">
-        <v>12</v>
+      <c r="F158">
+        <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
         <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>35</v>
       </c>
       <c r="J158" t="s">
         <v>12</v>
       </c>
       <c r="K158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
@@ -6026,25 +6374,28 @@
       <c r="E159">
         <v>2</v>
       </c>
-      <c r="F159" t="s">
-        <v>12</v>
+      <c r="F159">
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
         <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
       </c>
       <c r="J159" t="s">
         <v>12</v>
       </c>
       <c r="K159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
@@ -6060,25 +6411,28 @@
       <c r="E160">
         <v>3</v>
       </c>
-      <c r="F160" t="s">
-        <v>12</v>
+      <c r="F160">
+        <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>36</v>
       </c>
       <c r="J160" t="s">
         <v>12</v>
       </c>
       <c r="K160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
@@ -6094,25 +6448,28 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" t="s">
-        <v>12</v>
+      <c r="F161">
+        <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
         <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
       </c>
       <c r="J161" t="s">
         <v>12</v>
       </c>
       <c r="K161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
@@ -6128,25 +6485,28 @@
       <c r="E162">
         <v>2</v>
       </c>
-      <c r="F162" t="s">
-        <v>12</v>
+      <c r="F162">
+        <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
         <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
       </c>
       <c r="J162" t="s">
         <v>12</v>
       </c>
       <c r="K162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
@@ -6162,25 +6522,28 @@
       <c r="E163">
         <v>2</v>
       </c>
-      <c r="F163" t="s">
-        <v>12</v>
+      <c r="F163">
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
         <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
       </c>
       <c r="J163" t="s">
         <v>12</v>
       </c>
       <c r="K163" s="1">
         <f t="shared" ref="K163:L183" ca="1" si="5">NOW()</f>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L163" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
@@ -6196,25 +6559,28 @@
       <c r="E164">
         <v>3</v>
       </c>
-      <c r="F164" t="s">
-        <v>12</v>
+      <c r="F164">
+        <v>0</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>31</v>
       </c>
       <c r="J164" t="s">
         <v>12</v>
       </c>
       <c r="K164" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L164" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
@@ -6230,25 +6596,28 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165" t="s">
-        <v>12</v>
+      <c r="F165">
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
         <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
       </c>
       <c r="J165" t="s">
         <v>12</v>
       </c>
       <c r="K165" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L165" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
@@ -6264,25 +6633,28 @@
       <c r="E166">
         <v>1</v>
       </c>
-      <c r="F166" t="s">
-        <v>12</v>
+      <c r="F166">
+        <v>0</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
         <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
       </c>
       <c r="J166" t="s">
         <v>12</v>
       </c>
       <c r="K166" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L166" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.25">
@@ -6298,25 +6670,28 @@
       <c r="E167">
         <v>2</v>
       </c>
-      <c r="F167" t="s">
-        <v>12</v>
+      <c r="F167">
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
         <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
       </c>
       <c r="J167" t="s">
         <v>12</v>
       </c>
       <c r="K167" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L167" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
@@ -6332,25 +6707,28 @@
       <c r="E168">
         <v>2</v>
       </c>
-      <c r="F168" t="s">
-        <v>12</v>
+      <c r="F168">
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
         <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
       </c>
       <c r="J168" t="s">
         <v>12</v>
       </c>
       <c r="K168" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L168" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
@@ -6366,25 +6744,28 @@
       <c r="E169">
         <v>4</v>
       </c>
-      <c r="F169" t="s">
-        <v>12</v>
+      <c r="F169">
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>15</v>
       </c>
       <c r="J169" t="s">
         <v>12</v>
       </c>
       <c r="K169" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L169" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.25">
@@ -6400,25 +6781,28 @@
       <c r="E170">
         <v>2</v>
       </c>
-      <c r="F170" t="s">
-        <v>12</v>
+      <c r="F170">
+        <v>0</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
         <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>18</v>
       </c>
       <c r="J170" t="s">
         <v>12</v>
       </c>
       <c r="K170" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L170" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
@@ -6434,25 +6818,28 @@
       <c r="E171">
         <v>3</v>
       </c>
-      <c r="F171" t="s">
-        <v>12</v>
+      <c r="F171">
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>12</v>
       </c>
       <c r="J171" t="s">
         <v>12</v>
       </c>
       <c r="K171" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L171" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
@@ -6468,25 +6855,28 @@
       <c r="E172">
         <v>2</v>
       </c>
-      <c r="F172" t="s">
-        <v>12</v>
+      <c r="F172">
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
       </c>
       <c r="J172" t="s">
         <v>12</v>
       </c>
       <c r="K172" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L172" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
@@ -6502,25 +6892,28 @@
       <c r="E173">
         <v>3</v>
       </c>
-      <c r="F173" t="s">
-        <v>12</v>
+      <c r="F173">
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
         <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
       </c>
       <c r="J173" t="s">
         <v>12</v>
       </c>
       <c r="K173" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L173" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
@@ -6536,25 +6929,28 @@
       <c r="E174">
         <v>2</v>
       </c>
-      <c r="F174" t="s">
-        <v>12</v>
+      <c r="F174">
+        <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>15</v>
       </c>
       <c r="J174" t="s">
         <v>12</v>
       </c>
       <c r="K174" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L174" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
@@ -6570,25 +6966,28 @@
       <c r="E175">
         <v>2</v>
       </c>
-      <c r="F175" t="s">
-        <v>12</v>
+      <c r="F175">
+        <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
         <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
       </c>
       <c r="J175" t="s">
         <v>12</v>
       </c>
       <c r="K175" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L175" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.25">
@@ -6604,25 +7003,28 @@
       <c r="E176">
         <v>2</v>
       </c>
-      <c r="F176" t="s">
-        <v>12</v>
+      <c r="F176">
+        <v>0</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
         <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
       </c>
       <c r="J176" t="s">
         <v>12</v>
       </c>
       <c r="K176" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L176" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
@@ -6638,25 +7040,28 @@
       <c r="E177">
         <v>2</v>
       </c>
-      <c r="F177" t="s">
-        <v>12</v>
+      <c r="F177">
+        <v>0</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
       </c>
       <c r="J177" t="s">
         <v>12</v>
       </c>
       <c r="K177" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L177" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
@@ -6672,25 +7077,28 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178" t="s">
-        <v>12</v>
+      <c r="F178">
+        <v>0</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
         <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
       </c>
       <c r="J178" t="s">
         <v>12</v>
       </c>
       <c r="K178" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L178" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
@@ -6706,25 +7114,28 @@
       <c r="E179">
         <v>5</v>
       </c>
-      <c r="F179" t="s">
-        <v>12</v>
+      <c r="F179">
+        <v>0</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
         <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
       </c>
       <c r="J179" t="s">
         <v>12</v>
       </c>
       <c r="K179" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L179" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
@@ -6740,25 +7151,28 @@
       <c r="E180">
         <v>2</v>
       </c>
-      <c r="F180" t="s">
-        <v>12</v>
+      <c r="F180">
+        <v>0</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
         <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>16</v>
       </c>
       <c r="J180" t="s">
         <v>12</v>
       </c>
       <c r="K180" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L180" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
@@ -6774,25 +7188,28 @@
       <c r="E181">
         <v>2</v>
       </c>
-      <c r="F181" t="s">
-        <v>12</v>
+      <c r="F181">
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
       </c>
       <c r="J181" t="s">
         <v>12</v>
       </c>
       <c r="K181" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L181" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
@@ -6808,25 +7225,28 @@
       <c r="E182">
         <v>1</v>
       </c>
-      <c r="F182" t="s">
-        <v>12</v>
+      <c r="F182">
+        <v>0</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
         <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
       </c>
       <c r="J182" t="s">
         <v>12</v>
       </c>
       <c r="K182" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L182" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
@@ -6842,25 +7262,28 @@
       <c r="E183">
         <v>2</v>
       </c>
-      <c r="F183" t="s">
-        <v>12</v>
+      <c r="F183">
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>19</v>
       </c>
       <c r="J183" t="s">
         <v>12</v>
       </c>
       <c r="K183" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
       <c r="L183" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43088.998099537035</v>
+        <v>43128.838246990737</v>
       </c>
     </row>
   </sheetData>
